--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,118 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,45 +796,51 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -836,10 +855,16 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,17 +890,17 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,51 +963,63 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,35 +1176,37 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1147,48 +1214,60 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1211,60 +1290,72 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,35 +1700,41 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1603,48 +1742,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1879,48 +2064,54 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1937,101 +2128,119 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1300</v>
       </c>
       <c r="H45" s="3">
         <v>1100</v>
       </c>
       <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
@@ -2039,20 +2248,20 @@
       <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2069,75 +2284,87 @@
         <v>8400</v>
       </c>
       <c r="E48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G48" s="3">
         <v>8200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8100</v>
       </c>
       <c r="H48" s="3">
         <v>8200</v>
       </c>
       <c r="I48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>7700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>7700</v>
       </c>
       <c r="M48" s="3">
         <v>7700</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="O48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,19 +2617,21 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2382,22 +2643,28 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,131 +2674,149 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1000</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2548,23 +2833,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2574,11 +2865,11 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F76" s="3">
         <v>7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3261,16 +3658,22 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="E89" s="3">
-        <v>-2500</v>
+        <v>-1800</v>
       </c>
       <c r="F89" s="3">
         <v>-1400</v>
       </c>
       <c r="G89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,13 +3952,15 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3528,14 +3969,14 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,73 +4318,85 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,28 +744,28 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
@@ -770,13 +774,16 @@
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,10 +809,10 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -814,13 +821,16 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,22 +838,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -861,10 +871,13 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,29 +894,30 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1001,28 +1021,31 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4700</v>
       </c>
       <c r="H17" s="3">
         <v>4700</v>
       </c>
       <c r="I17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,17 +1221,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1205,11 +1239,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1220,54 +1254,60 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4300</v>
       </c>
       <c r="H21" s="3">
         <v>-4300</v>
       </c>
       <c r="I21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1200</v>
       </c>
       <c r="L21" s="3">
         <v>-1200</v>
       </c>
       <c r="M21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1296,66 +1336,72 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4400</v>
       </c>
       <c r="H27" s="3">
         <v>-4400</v>
       </c>
       <c r="I27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,17 +1785,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1733,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1748,54 +1818,60 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4400</v>
       </c>
       <c r="H33" s="3">
         <v>-4400</v>
       </c>
       <c r="I33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4400</v>
       </c>
       <c r="H35" s="3">
         <v>-4400</v>
       </c>
       <c r="I35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2145,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2070,7 +2163,7 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2079,28 +2172,31 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2113,8 +2209,8 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2134,8 +2230,8 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
@@ -2143,96 +2239,105 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
       </c>
       <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2243,7 +2348,7 @@
         <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
@@ -2254,8 +2359,8 @@
       <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2263,8 +2368,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2275,40 +2380,43 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8200</v>
       </c>
       <c r="H48" s="3">
         <v>8200</v>
       </c>
       <c r="I48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J48" s="3">
         <v>8100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>7700</v>
       </c>
       <c r="N48" s="3">
         <v>7700</v>
@@ -2317,54 +2425,60 @@
         <v>7700</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1300</v>
       </c>
       <c r="J49" s="3">
         <v>1300</v>
       </c>
       <c r="K49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2462,41 +2582,44 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2631,40 +2762,43 @@
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2680,137 +2814,146 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3800</v>
       </c>
       <c r="N59" s="3">
         <v>3800</v>
       </c>
       <c r="O59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1000</v>
       </c>
       <c r="H61" s="3">
         <v>1000</v>
@@ -2819,7 +2962,7 @@
         <v>1000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,26 +2982,29 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2871,8 +3017,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4400</v>
       </c>
       <c r="H81" s="3">
         <v>-4400</v>
       </c>
       <c r="I81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3664,7 +3863,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4174,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3975,11 +4196,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,40 +4328,43 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4380,25 +4629,25 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,28 +751,28 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -777,18 +781,21 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -812,10 +819,10 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
@@ -824,39 +831,42 @@
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -874,10 +884,13 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,23 +918,23 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,23 +1020,23 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1024,20 +1044,23 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,8 +1070,8 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4700</v>
       </c>
       <c r="I17" s="3">
         <v>4700</v>
       </c>
       <c r="J17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,17 +1258,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1242,11 +1276,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1257,57 +1291,63 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-4300</v>
       </c>
       <c r="I21" s="3">
         <v>-4300</v>
       </c>
       <c r="J21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1200</v>
       </c>
       <c r="M21" s="3">
         <v>-1200</v>
       </c>
       <c r="N21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1339,69 +1379,75 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-4400</v>
       </c>
       <c r="I27" s="3">
         <v>-4400</v>
       </c>
       <c r="J27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,17 +1858,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1806,11 +1876,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1821,57 +1891,63 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-4400</v>
       </c>
       <c r="I33" s="3">
         <v>-4400</v>
       </c>
       <c r="J33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-4400</v>
       </c>
       <c r="I35" s="3">
         <v>-4400</v>
       </c>
       <c r="J35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,16 +2238,19 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2166,7 +2259,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2175,28 +2268,31 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2212,8 +2308,8 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2233,8 +2329,8 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
@@ -2242,102 +2338,111 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2351,7 +2456,7 @@
         <v>600</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -2362,8 +2467,8 @@
       <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>400</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2371,8 +2476,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,34 +2500,34 @@
         <v>8300</v>
       </c>
       <c r="E48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>8200</v>
       </c>
       <c r="I48" s="3">
         <v>8200</v>
       </c>
       <c r="J48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>7700</v>
       </c>
       <c r="O48" s="3">
         <v>7700</v>
@@ -2428,10 +2536,13 @@
         <v>7700</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2441,44 +2552,47 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1300</v>
       </c>
       <c r="K49" s="3">
         <v>1300</v>
       </c>
       <c r="L49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,13 +2688,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2585,41 +2705,44 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2765,40 +2896,43 @@
         <v>1100</v>
       </c>
       <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2817,129 +2951,138 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N58" s="3">
         <v>1500</v>
       </c>
       <c r="O58" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3800</v>
       </c>
       <c r="O59" s="3">
         <v>3800</v>
       </c>
       <c r="P59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,16 +3090,16 @@
         <v>3300</v>
       </c>
       <c r="E61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="3">
         <v>3500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
@@ -2965,7 +3108,7 @@
         <v>1000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2996,18 +3142,18 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3020,8 +3166,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-4400</v>
       </c>
       <c r="I81" s="3">
         <v>-4400</v>
       </c>
       <c r="J81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3866,7 +4065,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,8 +4407,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4199,11 +4420,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4331,40 +4561,43 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4632,25 +4881,25 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,60 +755,66 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
       </c>
       <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -822,57 +835,63 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -887,10 +906,16 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,26 +948,26 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1042,70 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,11 +1118,11 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,63 +1177,71 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3300</v>
       </c>
       <c r="F17" s="3">
         <v>3500</v>
       </c>
       <c r="G17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3200</v>
+        <v>-2300</v>
       </c>
       <c r="E18" s="3">
         <v>-3000</v>
@@ -1191,43 +1250,49 @@
         <v>-3200</v>
       </c>
       <c r="G18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,38 +1322,38 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1294,60 +1361,72 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1382,27 +1461,33 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="E23" s="3">
         <v>-3100</v>
@@ -1411,43 +1496,49 @@
         <v>-3300</v>
       </c>
       <c r="G23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,13 +1643,19 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
         <v>-3100</v>
@@ -1561,48 +1664,54 @@
         <v>-3300</v>
       </c>
       <c r="G26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
         <v>-3100</v>
@@ -1611,43 +1720,49 @@
         <v>-3300</v>
       </c>
       <c r="G27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,38 +1994,38 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1894,15 +2033,21 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
         <v>-3100</v>
@@ -1911,43 +2056,49 @@
         <v>-3300</v>
       </c>
       <c r="G33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,13 +2147,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
         <v>-3100</v>
@@ -2011,98 +2168,110 @@
         <v>-3300</v>
       </c>
       <c r="G35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,46 +2438,52 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2311,11 +2502,11 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2332,67 +2523,79 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1300</v>
       </c>
       <c r="L45" s="3">
         <v>1100</v>
       </c>
       <c r="M45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,49 +2603,55 @@
         <v>2200</v>
       </c>
       <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2459,10 +2668,10 @@
         <v>600</v>
       </c>
       <c r="H47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
@@ -2470,20 +2679,20 @@
       <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>400</v>
+      </c>
+      <c r="M47" s="3">
+        <v>400</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2491,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,7 +2718,7 @@
         <v>8300</v>
       </c>
       <c r="F48" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="G48" s="3">
         <v>8300</v>
@@ -2512,37 +2727,43 @@
         <v>8400</v>
       </c>
       <c r="I48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K48" s="3">
         <v>8200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8100</v>
       </c>
       <c r="L48" s="3">
         <v>8200</v>
       </c>
       <c r="M48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O48" s="3">
         <v>7900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>7700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>7700</v>
       </c>
       <c r="Q48" s="3">
         <v>7700</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="S48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,44 +2776,50 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F54" s="3">
         <v>11200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>14800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2899,13 +3160,13 @@
         <v>1100</v>
       </c>
       <c r="H57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2917,27 +3178,33 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2954,135 +3221,153 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>1500</v>
       </c>
       <c r="F59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="E60" s="3">
         <v>2600</v>
       </c>
       <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,31 +3375,31 @@
         <v>3300</v>
       </c>
       <c r="E61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F61" s="3">
         <v>3300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H61" s="3">
         <v>3500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>1000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,21 +3436,21 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3169,11 +3460,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F66" s="3">
         <v>5800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6600</v>
       </c>
       <c r="G66" s="3">
         <v>6000</v>
       </c>
       <c r="H66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F76" s="3">
         <v>5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,68 +4278,80 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
         <v>-3100</v>
@@ -3971,43 +4360,49 @@
         <v>-3300</v>
       </c>
       <c r="G81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4068,16 +4465,22 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2500</v>
       </c>
       <c r="J89" s="3">
         <v>-1400</v>
       </c>
       <c r="K89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4410,11 +4851,11 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4423,14 +4864,14 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4564,40 +5023,46 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-7000</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4884,29 +5381,29 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,10 +759,10 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -767,28 +771,28 @@
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
@@ -797,13 +801,16 @@
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,13 +818,13 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -841,10 +848,10 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
-      </c>
-      <c r="P9" s="3">
-        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
@@ -853,13 +860,16 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,34 +877,34 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -912,10 +922,13 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,23 +968,23 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1065,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1068,23 +1088,23 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1092,20 +1112,23 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,8 +1147,8 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1215,58 @@
         <v>2600</v>
       </c>
       <c r="E17" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="F17" s="3">
         <v>3500</v>
       </c>
       <c r="G17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4700</v>
       </c>
       <c r="L17" s="3">
         <v>4700</v>
       </c>
       <c r="M17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>-2300</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,11 +1356,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1334,17 +1368,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1352,11 +1386,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1367,66 +1401,72 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-4300</v>
       </c>
       <c r="L21" s="3">
         <v>-4300</v>
       </c>
       <c r="M21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1200</v>
       </c>
       <c r="P21" s="3">
         <v>-1200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1467,22 +1507,25 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,55 +1533,58 @@
         <v>-2400</v>
       </c>
       <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,55 +1710,58 @@
         <v>-2400</v>
       </c>
       <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1769,58 @@
         <v>-2400</v>
       </c>
       <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-4400</v>
       </c>
       <c r="L27" s="3">
         <v>-4400</v>
       </c>
       <c r="M27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2006,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2024,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2039,10 +2109,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2123,58 @@
         <v>-2400</v>
       </c>
       <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-4400</v>
       </c>
       <c r="L33" s="3">
         <v>-4400</v>
       </c>
       <c r="M33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2241,122 @@
         <v>-2400</v>
       </c>
       <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-4400</v>
       </c>
       <c r="L35" s="3">
         <v>-4400</v>
       </c>
       <c r="M35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>400</v>
       </c>
       <c r="S41" s="3">
         <v>400</v>
       </c>
       <c r="T41" s="3">
+        <v>400</v>
+      </c>
+      <c r="U41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,16 +2528,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -2453,7 +2546,7 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2462,54 +2555,57 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2529,8 +2625,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2674,7 +2779,7 @@
         <v>600</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -2685,8 +2790,8 @@
       <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>400</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2694,8 +2799,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2724,34 +2832,34 @@
         <v>8300</v>
       </c>
       <c r="H48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I48" s="3">
         <v>8400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8200</v>
       </c>
       <c r="L48" s="3">
         <v>8200</v>
       </c>
       <c r="M48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N48" s="3">
         <v>8100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>7700</v>
       </c>
       <c r="R48" s="3">
         <v>7700</v>
@@ -2760,27 +2868,30 @@
         <v>7700</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2789,37 +2900,40 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1300</v>
       </c>
       <c r="N49" s="3">
         <v>1300</v>
       </c>
       <c r="O49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3047,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
-      </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2953,41 +3073,44 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3272,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
@@ -3166,48 +3297,51 @@
         <v>1100</v>
       </c>
       <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3227,173 +3361,182 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q58" s="3">
         <v>1500</v>
       </c>
       <c r="R58" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>3800</v>
       </c>
       <c r="R59" s="3">
         <v>3800</v>
       </c>
       <c r="S59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3300</v>
       </c>
       <c r="G61" s="3">
         <v>3300</v>
       </c>
       <c r="H61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1000</v>
       </c>
       <c r="L61" s="3">
         <v>1000</v>
@@ -3402,7 +3545,7 @@
         <v>1000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3442,18 +3588,18 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3466,8 +3612,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-42000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +4549,58 @@
         <v>-2400</v>
       </c>
       <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-4400</v>
       </c>
       <c r="L81" s="3">
         <v>-4400</v>
       </c>
       <c r="M81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4471,7 +4670,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4857,8 +5078,8 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4870,11 +5091,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,11 +5244,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5029,40 +5259,43 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-7000</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5387,25 +5636,25 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>100</v>
-      </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
@@ -774,28 +778,28 @@
         <v>300</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -804,30 +808,33 @@
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -851,10 +858,10 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
@@ -863,51 +870,54 @@
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -925,10 +935,13 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -971,22 +985,22 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,11 +1099,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1091,23 +1111,23 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1115,11 +1135,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>1300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,8 +1173,8 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
         <v>2600</v>
       </c>
       <c r="F17" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="G17" s="3">
         <v>3500</v>
       </c>
       <c r="H17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4700</v>
       </c>
       <c r="M17" s="3">
         <v>4700</v>
       </c>
       <c r="N17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="E18" s="3">
         <v>-2300</v>
       </c>
       <c r="F18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,11 +1393,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1371,17 +1405,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1389,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1404,74 +1438,80 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-4300</v>
       </c>
       <c r="M21" s="3">
         <v>-4300</v>
       </c>
       <c r="N21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q21" s="3">
         <v>-1200</v>
       </c>
       <c r="R21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1510,81 +1550,87 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
         <v>-2400</v>
       </c>
       <c r="F23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
         <v>-2400</v>
       </c>
       <c r="F26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
         <v>-2400</v>
       </c>
       <c r="F27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-4400</v>
       </c>
       <c r="M27" s="3">
         <v>-4400</v>
       </c>
       <c r="N27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2079,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2097,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2112,69 +2182,75 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
         <v>-2400</v>
       </c>
       <c r="F33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-4400</v>
       </c>
       <c r="M33" s="3">
         <v>-4400</v>
       </c>
       <c r="N33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
         <v>-2400</v>
       </c>
       <c r="F35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-4400</v>
       </c>
       <c r="M35" s="3">
         <v>-4400</v>
       </c>
       <c r="N35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3000</v>
-      </c>
-      <c r="S41" s="3">
-        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
       </c>
       <c r="U41" s="3">
+        <v>400</v>
+      </c>
+      <c r="V41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2531,16 +2624,16 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -2549,7 +2642,7 @@
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2558,28 +2651,31 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2604,12 +2700,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
@@ -2628,8 +2724,8 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,58 +2745,61 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
       </c>
       <c r="K45" s="3">
+        <v>600</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2705,63 +2807,66 @@
         <v>1300</v>
       </c>
       <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>600</v>
@@ -2782,7 +2887,7 @@
         <v>600</v>
       </c>
       <c r="K47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L47" s="3">
         <v>400</v>
@@ -2793,8 +2898,8 @@
       <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>400</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2802,8 +2907,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2814,13 +2919,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E48" s="3">
         <v>8300</v>
@@ -2835,34 +2943,34 @@
         <v>8300</v>
       </c>
       <c r="I48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J48" s="3">
         <v>8400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>8200</v>
       </c>
       <c r="M48" s="3">
         <v>8200</v>
       </c>
       <c r="N48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O48" s="3">
         <v>8100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>7700</v>
       </c>
       <c r="S48" s="3">
         <v>7700</v>
@@ -2871,10 +2979,13 @@
         <v>7700</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2903,28 +3014,28 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1300</v>
       </c>
       <c r="O49" s="3">
         <v>1300</v>
       </c>
       <c r="P49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1600</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,25 +3167,28 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3076,41 +3196,44 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3177,58 +3303,61 @@
         <v>10400</v>
       </c>
       <c r="E54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F54" s="3">
         <v>11300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,16 +3403,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1100</v>
       </c>
       <c r="F57" s="3">
         <v>1100</v>
@@ -3300,40 +3431,43 @@
         <v>1100</v>
       </c>
       <c r="K57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,8 +3477,8 @@
       <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3364,182 +3498,191 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="R58" s="3">
         <v>1500</v>
       </c>
       <c r="S58" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="T58" s="3">
         <v>2100</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>3800</v>
       </c>
       <c r="S59" s="3">
         <v>3800</v>
       </c>
       <c r="T59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3300</v>
       </c>
       <c r="H61" s="3">
         <v>3300</v>
       </c>
       <c r="I61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J61" s="3">
         <v>3500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1000</v>
       </c>
       <c r="M61" s="3">
         <v>1000</v>
@@ -3548,7 +3691,7 @@
         <v>1000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3568,13 +3711,16 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3591,17 +3737,17 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>3100</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3615,8 +3761,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-42000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
         <v>-2400</v>
       </c>
       <c r="F81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-4400</v>
       </c>
       <c r="M81" s="3">
         <v>-4400</v>
       </c>
       <c r="N81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4673,7 +4872,7 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,28 +5278,29 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5094,11 +5315,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5247,11 +5477,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5262,40 +5492,43 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-7000</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5639,25 +5888,25 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
       </c>
       <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>300</v>
-      </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -861,69 +874,75 @@
         <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -938,10 +957,16 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,16 +989,18 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -988,26 +1015,26 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,56 +1141,62 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,11 +1221,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,87 +1284,95 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2500</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>2600</v>
       </c>
       <c r="F17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I17" s="3">
         <v>3500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3300</v>
       </c>
       <c r="J17" s="3">
         <v>3500</v>
       </c>
       <c r="K17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-2000</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>-2300</v>
       </c>
       <c r="F18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H18" s="3">
-        <v>-3200</v>
+        <v>-2300</v>
       </c>
       <c r="I18" s="3">
         <v>-3000</v>
@@ -1322,43 +1381,49 @@
         <v>-3200</v>
       </c>
       <c r="K18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,13 +1446,15 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1396,44 +1463,44 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1441,83 +1508,95 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1553,39 +1632,45 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-3300</v>
       </c>
       <c r="I23" s="3">
         <v>-3100</v>
@@ -1594,43 +1679,49 @@
         <v>-3300</v>
       </c>
       <c r="K23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,25 +1850,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-3300</v>
       </c>
       <c r="I26" s="3">
         <v>-3100</v>
@@ -1780,60 +1883,66 @@
         <v>-3300</v>
       </c>
       <c r="K26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-3300</v>
       </c>
       <c r="I27" s="3">
         <v>-3100</v>
@@ -1842,43 +1951,49 @@
         <v>-3300</v>
       </c>
       <c r="K27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,13 +2258,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2140,43 +2279,43 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2185,27 +2324,33 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-3300</v>
       </c>
       <c r="I33" s="3">
         <v>-3100</v>
@@ -2214,43 +2359,49 @@
         <v>-3300</v>
       </c>
       <c r="K33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,25 +2462,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-3300</v>
       </c>
       <c r="I35" s="3">
         <v>-3100</v>
@@ -2338,110 +2495,122 @@
         <v>-3300</v>
       </c>
       <c r="K35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,61 +2670,67 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F41" s="3">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
       </c>
       <c r="H41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>700</v>
+      </c>
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2627,7 +2812,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2636,46 +2821,52 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2703,14 +2894,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2727,90 +2918,102 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1300</v>
       </c>
       <c r="P45" s="3">
         <v>1100</v>
       </c>
       <c r="Q45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>1300</v>
       </c>
       <c r="F46" s="3">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="G46" s="3">
         <v>1300</v>
@@ -2819,49 +3022,55 @@
         <v>2200</v>
       </c>
       <c r="I46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2869,10 +3078,10 @@
         <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G47" s="3">
         <v>600</v>
@@ -2890,10 +3099,10 @@
         <v>600</v>
       </c>
       <c r="L47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N47" s="3">
         <v>400</v>
@@ -2901,20 +3110,20 @@
       <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>400</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2922,19 +3131,25 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F48" s="3">
         <v>8100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8300</v>
       </c>
       <c r="G48" s="3">
         <v>8300</v>
@@ -2946,7 +3161,7 @@
         <v>8300</v>
       </c>
       <c r="J48" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="K48" s="3">
         <v>8300</v>
@@ -2955,37 +3170,43 @@
         <v>8400</v>
       </c>
       <c r="M48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="N48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O48" s="3">
         <v>8200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>8200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>8100</v>
       </c>
       <c r="P48" s="3">
         <v>8200</v>
       </c>
       <c r="Q48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="S48" s="3">
         <v>7900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>7700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>7700</v>
       </c>
       <c r="U48" s="3">
         <v>7700</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="W48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3017,37 +3238,43 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F54" s="3">
         <v>10400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>11300</v>
       </c>
       <c r="G54" s="3">
         <v>10400</v>
       </c>
       <c r="H54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J54" s="3">
         <v>11200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>14300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,22 +3663,24 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
@@ -3434,13 +3695,13 @@
         <v>1100</v>
       </c>
       <c r="L57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3452,27 +3713,33 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -3480,11 +3747,11 @@
       <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3501,203 +3768,221 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
       </c>
       <c r="I59" s="3">
         <v>1500</v>
       </c>
       <c r="J59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2400</v>
       </c>
       <c r="I60" s="3">
         <v>2600</v>
       </c>
       <c r="J60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F61" s="3">
         <v>4000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3600</v>
       </c>
       <c r="H61" s="3">
         <v>3300</v>
       </c>
       <c r="I61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J61" s="3">
         <v>3300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L61" s="3">
         <v>3500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1000</v>
       </c>
       <c r="O61" s="3">
         <v>1000</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3714,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3723,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3740,21 +4031,21 @@
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3764,11 +4055,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>6600</v>
       </c>
       <c r="K66" s="3">
         <v>6000</v>
       </c>
       <c r="L66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-48800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-46800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-42000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-38900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-20000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,92 +5045,104 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-3300</v>
       </c>
       <c r="I81" s="3">
         <v>-3100</v>
@@ -4762,43 +5151,49 @@
         <v>-3300</v>
       </c>
       <c r="K81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4875,16 +5272,22 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2500</v>
       </c>
       <c r="N89" s="3">
         <v>-1400</v>
       </c>
       <c r="O89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5293,17 +5734,17 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5318,14 +5759,14 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5480,14 +5939,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5495,40 +5954,46 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-7000</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>4200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5891,29 +6388,29 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>AVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,19 +777,19 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
@@ -794,28 +798,28 @@
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
       </c>
       <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
@@ -824,13 +828,16 @@
         <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,22 +848,22 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -880,10 +887,10 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
         <v>400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
@@ -892,13 +899,16 @@
         <v>200</v>
       </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,43 +919,43 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
@@ -963,10 +973,13 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,19 +1004,20 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -1021,23 +1035,23 @@
         <v>200</v>
       </c>
       <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1144,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1147,11 +1167,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1159,23 +1179,23 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1183,20 +1203,23 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,8 +1250,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>3100</v>
       </c>
       <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2600</v>
       </c>
       <c r="H17" s="3">
         <v>2600</v>
       </c>
       <c r="I17" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="J17" s="3">
         <v>3500</v>
       </c>
       <c r="K17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4700</v>
       </c>
       <c r="P17" s="3">
         <v>4700</v>
       </c>
       <c r="Q17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-2800</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
       </c>
       <c r="H18" s="3">
         <v>-2300</v>
       </c>
       <c r="I18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1481,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1469,11 +1503,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1481,17 +1515,17 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1499,11 +1533,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1514,92 +1548,98 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-1900</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-4300</v>
       </c>
       <c r="P21" s="3">
         <v>-4300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1200</v>
       </c>
       <c r="T21" s="3">
         <v>-1200</v>
       </c>
       <c r="U21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1638,90 +1678,96 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2400</v>
       </c>
       <c r="H23" s="3">
         <v>-2400</v>
       </c>
       <c r="I23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2400</v>
       </c>
       <c r="H26" s="3">
         <v>-2400</v>
       </c>
       <c r="I26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2400</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-4400</v>
       </c>
       <c r="P27" s="3">
         <v>-4400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,16 +2331,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2285,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2297,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2315,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2330,78 +2400,84 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2400</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-4400</v>
       </c>
       <c r="P33" s="3">
         <v>-4400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2400</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-4400</v>
       </c>
       <c r="P35" s="3">
         <v>-4400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
-      </c>
-      <c r="V41" s="3">
-        <v>400</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
       <c r="X41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y41" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2818,16 +2911,16 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2836,7 +2929,7 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2845,28 +2938,31 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2900,11 +2996,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2924,8 +3020,8 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
@@ -2933,84 +3029,90 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
       </c>
       <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1300</v>
       </c>
       <c r="F46" s="3">
         <v>1300</v>
@@ -3019,58 +3121,61 @@
         <v>1300</v>
       </c>
       <c r="H46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3084,7 +3189,7 @@
         <v>700</v>
       </c>
       <c r="G47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
         <v>600</v>
@@ -3105,7 +3210,7 @@
         <v>600</v>
       </c>
       <c r="N47" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O47" s="3">
         <v>400</v>
@@ -3116,8 +3221,8 @@
       <c r="Q47" s="3">
         <v>400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>400</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3125,8 +3230,8 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3137,22 +3242,25 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E48" s="3">
         <v>7900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8300</v>
       </c>
       <c r="H48" s="3">
         <v>8300</v>
@@ -3167,34 +3275,34 @@
         <v>8300</v>
       </c>
       <c r="L48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="M48" s="3">
         <v>8400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>8200</v>
       </c>
       <c r="P48" s="3">
         <v>8200</v>
       </c>
       <c r="Q48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="R48" s="3">
         <v>8100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>7700</v>
       </c>
       <c r="V48" s="3">
         <v>7700</v>
@@ -3203,10 +3311,13 @@
         <v>7700</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>7700</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3244,37 +3355,40 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1300</v>
       </c>
       <c r="R49" s="3">
         <v>1300</v>
       </c>
       <c r="S49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T49" s="3">
         <v>1400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,22 +3541,22 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -3444,41 +3564,44 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
         <v>9700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>10400</v>
       </c>
       <c r="G54" s="3">
         <v>10400</v>
       </c>
       <c r="H54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I54" s="3">
         <v>11300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3795,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1100</v>
       </c>
       <c r="I57" s="3">
         <v>1100</v>
@@ -3701,48 +3832,51 @@
         <v>1100</v>
       </c>
       <c r="N57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3753,8 +3887,8 @@
       <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3774,209 +3908,218 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
       <c r="T58" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="U58" s="3">
         <v>1500</v>
       </c>
       <c r="V58" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="W58" s="3">
         <v>2100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>3800</v>
       </c>
       <c r="V59" s="3">
         <v>3800</v>
       </c>
       <c r="W59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X59" s="3">
         <v>3400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3300</v>
       </c>
       <c r="K61" s="3">
         <v>3300</v>
       </c>
       <c r="L61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M61" s="3">
         <v>3500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1000</v>
       </c>
       <c r="P61" s="3">
         <v>1000</v>
@@ -3985,7 +4128,7 @@
         <v>1000</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4005,13 +4148,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4020,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4037,18 +4183,18 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4061,8 +4207,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-42000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2400</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-4400</v>
       </c>
       <c r="P81" s="3">
         <v>-4400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5278,7 +5477,7 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5955,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -5746,8 +5967,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5765,11 +5986,11 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6151,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5945,11 +6175,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5960,40 +6190,43 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1000</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-7000</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4200</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6394,25 +6643,25 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>100</v>
-      </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>-100</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2700</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2500</v>
       </c>
     </row>
